--- a/Documentação/Gráficos Burndown/Burndown do modulo I/Gráfico burndown modulo I.xlsx
+++ b/Documentação/Gráficos Burndown/Burndown do modulo I/Gráfico burndown modulo I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cerberus\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1685E183-FD68-4CAB-A214-CC0B8E468620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF7163A8-BB77-4BC5-9E5F-E964F21A986E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
@@ -738,34 +738,34 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -939,19 +939,19 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1051,28 +1051,28 @@
                   <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>138.69999999999999</c:v>
+                  <c:v>127.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131.39999999999998</c:v>
+                  <c:v>109.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>124.09999999999998</c:v>
+                  <c:v>91.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>116.79999999999998</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>109.49999999999999</c:v>
+                  <c:v>54.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>102.19999999999999</c:v>
+                  <c:v>36.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.899999999999991</c:v>
+                  <c:v>18.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>87.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3501,8 +3501,8 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -3516,96 +3516,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="33"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="97.5" customHeight="1">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="40" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="41"/>
+      <c r="L6" s="40"/>
     </row>
     <row r="7" spans="1:12" ht="45.75" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -3653,7 +3653,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>
@@ -3664,11 +3664,11 @@
       <c r="J8" s="16"/>
       <c r="K8" s="22">
         <f>B8-SUM(C8:J8)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L8" s="13">
         <f>IFERROR(1-(K8/B8),"")</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1">
@@ -3679,7 +3679,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="18"/>
@@ -3690,11 +3690,11 @@
       <c r="J9" s="19"/>
       <c r="K9" s="23">
         <f>B9-SUM(C9:J9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="13">
         <f>IFERROR(1-(K9/B9),"")</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1">
@@ -3928,7 +3928,7 @@
       <c r="D18" s="19"/>
       <c r="E18" s="18"/>
       <c r="F18" s="19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="19"/>
@@ -3936,11 +3936,11 @@
       <c r="J18" s="19"/>
       <c r="K18" s="23">
         <f>B18-SUM(C18:J18)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" s="13">
         <f>IFERROR(1-(K18/B18),"")</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1">
@@ -3954,7 +3954,7 @@
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="19"/>
@@ -3962,11 +3962,11 @@
       <c r="J19" s="19"/>
       <c r="K19" s="23">
         <f>B19-SUM(C19:J19)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L19" s="13">
         <f>IFERROR(1-(K19/B19),"")</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1">
@@ -3980,7 +3980,7 @@
       <c r="D20" s="19"/>
       <c r="E20" s="18"/>
       <c r="F20" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="19"/>
@@ -3988,11 +3988,11 @@
       <c r="J20" s="19"/>
       <c r="K20" s="23">
         <f>B20-SUM(C20:J20)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L20" s="13">
         <f>IFERROR(1-(K20/B20),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1">
@@ -4006,7 +4006,7 @@
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
       <c r="F21" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="19"/>
@@ -4014,11 +4014,11 @@
       <c r="J21" s="19"/>
       <c r="K21" s="23">
         <f>B21-SUM(C21:J21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" s="13">
         <f>IFERROR(1-(K21/B21),"")</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1">
@@ -4032,7 +4032,7 @@
       <c r="D22" s="19"/>
       <c r="E22" s="18"/>
       <c r="F22" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="19"/>
@@ -4040,11 +4040,11 @@
       <c r="J22" s="19"/>
       <c r="K22" s="23">
         <f>B22-SUM(C22:J22)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L22" s="13">
         <f>IFERROR(1-(K22/B22),"")</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1">
@@ -4059,18 +4059,18 @@
       <c r="E23" s="18"/>
       <c r="F23" s="19"/>
       <c r="G23" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="18"/>
       <c r="J23" s="19"/>
       <c r="K23" s="23">
         <f>B23-SUM(C23:J23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="13">
         <f>IFERROR(1-(K23/B23),"")</f>
-        <v>1</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1">
@@ -4085,18 +4085,18 @@
       <c r="E24" s="18"/>
       <c r="F24" s="19"/>
       <c r="G24" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="18"/>
       <c r="J24" s="19"/>
       <c r="K24" s="23">
         <f>B24-SUM(C24:J24)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L24" s="13">
         <f>IFERROR(1-(K24/B24),"")</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
@@ -4111,18 +4111,18 @@
       <c r="E25" s="18"/>
       <c r="F25" s="19"/>
       <c r="G25" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="18"/>
       <c r="J25" s="19"/>
       <c r="K25" s="23">
         <f>B25-SUM(C25:J25)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L25" s="13">
         <f>IFERROR(1-(K25/B25),"")</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
@@ -4164,17 +4164,17 @@
       <c r="F27" s="19"/>
       <c r="G27" s="18"/>
       <c r="H27" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="19"/>
       <c r="K27" s="23">
         <f>B27-SUM(C27:J27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="13">
         <f>IFERROR(1-(K27/B27),"")</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1">
@@ -4269,16 +4269,16 @@
       <c r="G31" s="18"/>
       <c r="H31" s="19"/>
       <c r="I31" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J31" s="19"/>
       <c r="K31" s="23">
         <f>B31-SUM(C31:J31)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L31" s="13">
         <f>IFERROR(1-(K31/B31),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1">
@@ -4322,15 +4322,15 @@
       <c r="H33" s="19"/>
       <c r="I33" s="18"/>
       <c r="J33" s="14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K33" s="23">
         <f>B33-SUM(C33:J33)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L33" s="13">
         <f>IFERROR(1-(K33/B33),"")</f>
-        <v>1</v>
+        <v>1.2857142857142856</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
@@ -4348,15 +4348,15 @@
       <c r="H34" s="19"/>
       <c r="I34" s="18"/>
       <c r="J34" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K34" s="23">
         <f>B34-SUM(C34:J34)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34" s="13">
         <f>IFERROR(1-(K34/B34),"")</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
@@ -4374,15 +4374,15 @@
       <c r="H35" s="19"/>
       <c r="I35" s="18"/>
       <c r="J35" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K35" s="23">
         <f>B35-SUM(C35:J35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="13">
         <f>IFERROR(1-(K35/B35),"")</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
@@ -4537,31 +4537,31 @@
       </c>
       <c r="F41" s="9">
         <f>IFERROR(IF(E41-SUM(F8:F40)=E41,NA(),E41-SUM(F8:F40)),NA())</f>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G41" s="9">
         <f>IFERROR(IF(F41-SUM(G8:G40)=F41,NA(),F41-SUM(G8:G40)),NA())</f>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H41" s="9">
         <f>IFERROR(IF(G41-SUM(H8:H40)=G41,NA(),G41-SUM(H8:H40)),NA())</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I41" s="9">
         <f>IFERROR(IF(H41-SUM(I8:I40)=H41,NA(),H41-SUM(I8:I40)),NA())</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J41" s="9">
         <f>IFERROR(IF(I41-SUM(J8:J40)=I41,NA(),I41-SUM(J8:J40)),NA())</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="K41" s="28">
         <f>SUM(K8:K40)</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="L41" s="25">
         <f>IFERROR(1-(K41/B41),"")</f>
-        <v>1.0136986301369864</v>
+        <v>0.99315068493150682</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="16.5">
@@ -4573,36 +4573,36 @@
         <v>146</v>
       </c>
       <c r="C42" s="11">
-        <f>IFERROR((IF(B42-($B$41/$G$4) &lt; 0,"-", B42-($B$41/$G$4))),IFERROR(B42-($B$41/20),"-"))</f>
-        <v>138.69999999999999</v>
+        <f>IFERROR((IF(B42-($B$41/$G$4) &lt; 0,"-", B42-($B$41/$G$4))),IFERROR(B42-($B$41/8),"-"))</f>
+        <v>127.75</v>
       </c>
       <c r="D42" s="11">
-        <f>IFERROR((IF(C42-($B$41/$G$4) &lt; 0,"-", C42-($B$41/$G$4))),IFERROR(C42-($B$41/20),"-"))</f>
-        <v>131.39999999999998</v>
+        <f>IFERROR((IF(C42-($B$41/$G$4) &lt; 0,"-", C42-($B$41/$G$4))),IFERROR(C42-($B$41/8),"-"))</f>
+        <v>109.5</v>
       </c>
       <c r="E42" s="11">
-        <f>IFERROR((IF(D42-($B$41/$G$4) &lt; 0,"-", D42-($B$41/$G$4))),IFERROR(D42-($B$41/20),"-"))</f>
-        <v>124.09999999999998</v>
+        <f>IFERROR((IF(D42-($B$41/$G$4) &lt; 0,"-", D42-($B$41/$G$4))),IFERROR(D42-($B$41/8),"-"))</f>
+        <v>91.25</v>
       </c>
       <c r="F42" s="11">
-        <f>IFERROR((IF(E42-($B$41/$G$4) &lt; 0,"-", E42-($B$41/$G$4))),IFERROR(E42-($B$41/20),"-"))</f>
-        <v>116.79999999999998</v>
+        <f>IFERROR((IF(E42-($B$41/$G$4) &lt; 0,"-", E42-($B$41/$G$4))),IFERROR(E42-($B$41/8),"-"))</f>
+        <v>73</v>
       </c>
       <c r="G42" s="11">
-        <f>IFERROR((IF(F42-($B$41/$G$4) &lt; 0,"-", F42-($B$41/$G$4))),IFERROR(F42-($B$41/20),"-"))</f>
-        <v>109.49999999999999</v>
+        <f>IFERROR((IF(F42-($B$41/$G$4) &lt; 0,"-", F42-($B$41/$G$4))),IFERROR(F42-($B$41/8),"-"))</f>
+        <v>54.75</v>
       </c>
       <c r="H42" s="11">
-        <f>IFERROR((IF(G42-($B$41/$G$4) &lt; 0,"-", G42-($B$41/$G$4))),IFERROR(G42-($B$41/20),"-"))</f>
-        <v>102.19999999999999</v>
+        <f>IFERROR((IF(G42-($B$41/$G$4) &lt; 0,"-", G42-($B$41/$G$4))),IFERROR(G42-($B$41/8),"-"))</f>
+        <v>36.5</v>
       </c>
       <c r="I42" s="11">
-        <f>IFERROR((IF(H42-($B$41/$G$4) &lt; 0,"-", H42-($B$41/$G$4))),IFERROR(H42-($B$41/20),"-"))</f>
-        <v>94.899999999999991</v>
+        <f>IFERROR((IF(H42-($B$41/$G$4) &lt; 0,"-", H42-($B$41/$G$4))),IFERROR(H42-($B$41/8),"-"))</f>
+        <v>18.25</v>
       </c>
       <c r="J42" s="11">
-        <f>IFERROR((IF(I42-($B$41/$G$4) &lt; 0,"-", I42-($B$41/$G$4))),IFERROR(I42-($B$41/20),"-"))</f>
-        <v>87.6</v>
+        <f>IFERROR((IF(I42-($B$41/$G$4) &lt; 0,"-", I42-($B$41/$G$4))),IFERROR(I42-($B$41/8),"-"))</f>
+        <v>0</v>
       </c>
       <c r="K42" s="26"/>
       <c r="L42" s="27"/>
